--- a/src/main/resources/ABALoginCred.xlsx
+++ b/src/main/resources/ABALoginCred.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="11910" windowHeight="4575"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="ABALogin" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
   <si>
     <t>UserRole</t>
   </si>
@@ -26,6 +26,12 @@
     <t>Password</t>
   </si>
   <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
     <t>Admin</t>
   </si>
   <si>
@@ -33,6 +39,9 @@
   </si>
   <si>
     <t>admin</t>
+  </si>
+  <si>
+    <t>Super</t>
   </si>
   <si>
     <r>
@@ -55,10 +64,16 @@
     </r>
   </si>
   <si>
-    <t>staff@yopmail.com</t>
-  </si>
-  <si>
-    <t>Test@1234</t>
+    <t>auto.staff@yopmail.com</t>
+  </si>
+  <si>
+    <t>Test@123</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>Staff</t>
   </si>
   <si>
     <r>
@@ -81,34 +96,55 @@
     </r>
   </si>
   <si>
-    <t>testdean@yopmail.com</t>
-  </si>
-  <si>
-    <t>Test@123</t>
+    <t>auto.dean@yopmail.com</t>
+  </si>
+  <si>
+    <t>Dean</t>
   </si>
   <si>
     <t>ABA Executive</t>
   </si>
   <si>
-    <t>abaexecutive@yopmail.com</t>
+    <t>auto.executive@yopmail.com</t>
+  </si>
+  <si>
+    <t>Executive</t>
   </si>
   <si>
     <t>Paralegal Member</t>
   </si>
   <si>
-    <t>paralegals@yopmail.com</t>
+    <t>auto.paralegal@yopmail.com</t>
+  </si>
+  <si>
+    <t>Paralegal</t>
   </si>
   <si>
     <t>Internal Reviewer</t>
   </si>
   <si>
-    <t>ir@yopmail.com</t>
+    <t>auto.ir@yopmail.com</t>
+  </si>
+  <si>
+    <t>IR</t>
   </si>
   <si>
     <t>Council</t>
   </si>
   <si>
-    <t>tempN12@yopmail.com</t>
+    <t>auto.council@yopmail.com</t>
+  </si>
+  <si>
+    <t>Site visit member</t>
+  </si>
+  <si>
+    <t>auto.memberone@yopmail.com</t>
+  </si>
+  <si>
+    <t>Test@124</t>
+  </si>
+  <si>
+    <t>Memberone</t>
   </si>
 </sst>
 </file>
@@ -117,9 +153,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -142,32 +178,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -181,45 +196,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,8 +210,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -242,45 +241,82 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,187 +331,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,21 +522,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -528,17 +549,28 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,6 +586,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -575,23 +622,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -609,134 +645,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -744,6 +780,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1065,20 +1107,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="45.2857142857143" customWidth="1"/>
     <col min="2" max="2" width="39.8571428571429" customWidth="1"/>
     <col min="3" max="3" width="30.2857142857143" customWidth="1"/>
+    <col min="4" max="4" width="13.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1088,93 +1131,159 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="super.admin@thoughtfocus.com" tooltip="mailto:super.admin@thoughtfocus.com"/>
-    <hyperlink ref="B3" r:id="rId2" display="staff@yopmail.com" tooltip="mailto:staff@yopmail.com"/>
-    <hyperlink ref="B4" r:id="rId3" display="testdean@yopmail.com" tooltip="mailto:testdean@yopmail.com"/>
-    <hyperlink ref="B5" r:id="rId4" display="abaexecutive@yopmail.com" tooltip="mailto:abaexecutive@yopmail.com"/>
-    <hyperlink ref="B6" r:id="rId5" display="paralegals@yopmail.com" tooltip="mailto:paralegals@yopmail.com"/>
-    <hyperlink ref="B7" r:id="rId6" display="ir@yopmail.com" tooltip="mailto:ir@yopmail.com"/>
-    <hyperlink ref="B8" r:id="rId7" display="tempN12@yopmail.com" tooltip="mailto:tempN12@yopmail.com"/>
+    <hyperlink ref="B3" r:id="rId2" display="auto.staff@yopmail.com" tooltip="mailto:auto.staff@yopmail.com"/>
+    <hyperlink ref="B4" r:id="rId3" display="auto.dean@yopmail.com" tooltip="mailto:auto.dean@yopmail.com"/>
+    <hyperlink ref="B5" r:id="rId4" display="auto.executive@yopmail.com" tooltip="mailto:auto.executive@yopmail.com"/>
+    <hyperlink ref="B6" r:id="rId5" display="auto.paralegal@yopmail.com" tooltip="mailto:auto.paralegal@yopmail.com"/>
+    <hyperlink ref="B7" r:id="rId6" display="auto.ir@yopmail.com" tooltip="mailto:auto.ir@yopmail.com"/>
+    <hyperlink ref="B8" r:id="rId7" display="auto.council@yopmail.com" tooltip="mailto:auto.council@yopmail.com"/>
+    <hyperlink ref="B9" r:id="rId8" display="auto.memberone@yopmail.com" tooltip="mailto:auto.memberone@yopmail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/src/main/resources/ABALoginCred.xlsx
+++ b/src/main/resources/ABALoginCred.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="19890" windowHeight="8355"/>
   </bookViews>
   <sheets>
     <sheet name="ABALogin" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
   <si>
     <t>UserRole</t>
   </si>
@@ -44,24 +44,7 @@
     <t>Super</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF212121"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Staff</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF212121"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t> </t>
-    </r>
+    <t>Staff</t>
   </si>
   <si>
     <t>auto.staff@yopmail.com</t>
@@ -73,35 +56,12 @@
     <t>Auto</t>
   </si>
   <si>
-    <t>Staff</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF212121"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Dean</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF212121"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t> </t>
-    </r>
+    <t>Dean</t>
   </si>
   <si>
     <t>auto.dean@yopmail.com</t>
   </si>
   <si>
-    <t>Dean</t>
-  </si>
-  <si>
     <t>ABA Executive</t>
   </si>
   <si>
@@ -139,9 +99,6 @@
   </si>
   <si>
     <t>auto.memberone@yopmail.com</t>
-  </si>
-  <si>
-    <t>Test@124</t>
   </si>
   <si>
     <t>Memberone</t>
@@ -153,9 +110,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -176,6 +133,128 @@
       <color rgb="FF212121"/>
       <name val="Calibri"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -186,40 +265,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,96 +274,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -331,85 +288,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,97 +468,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -525,11 +482,67 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -551,56 +564,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -613,21 +579,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -645,134 +602,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -780,12 +737,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1110,7 +1061,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -1159,7 +1110,7 @@
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C3" t="s">
@@ -1169,15 +1120,15 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>
@@ -1186,15 +1137,15 @@
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>11</v>
@@ -1203,15 +1154,15 @@
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>11</v>
@@ -1220,15 +1171,15 @@
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>11</v>
@@ -1237,15 +1188,15 @@
         <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>11</v>
@@ -1254,24 +1205,24 @@
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1284,6 +1235,7 @@
     <hyperlink ref="B7" r:id="rId6" display="auto.ir@yopmail.com" tooltip="mailto:auto.ir@yopmail.com"/>
     <hyperlink ref="B8" r:id="rId7" display="auto.council@yopmail.com" tooltip="mailto:auto.council@yopmail.com"/>
     <hyperlink ref="B9" r:id="rId8" display="auto.memberone@yopmail.com" tooltip="mailto:auto.memberone@yopmail.com"/>
+    <hyperlink ref="C9" r:id="rId9" display="Test@123" tooltip="mailto:Test@123"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
